--- a/documents/#02.基本設計/画面項目_XXX_ログイン.xlsx
+++ b/documents/#02.基本設計/画面項目_XXX_ログイン.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4656D-36B4-4CDB-9254-A7B209B1E42F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A461B4-C218-4C66-A0A5-8104BC04B378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="600" windowWidth="18270" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="18270" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">原紙!$A$1:$BU$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">原紙!$A$1:$BU$99</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">原紙!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -76,10 +76,6 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ページNo</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -163,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -388,7 +384,185 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
         <color auto="1"/>
       </left>
       <right/>
@@ -399,18 +573,53 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
         <color auto="1"/>
       </left>
       <right/>
@@ -419,27 +628,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -447,159 +641,14 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
         <color auto="1"/>
       </left>
       <right/>
@@ -610,87 +659,99 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -699,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -707,160 +768,166 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1144,10 +1211,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BU101"/>
+  <dimension ref="A1:BU99"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AT4" sqref="AT4:BF5"/>
+      <selection activeCell="AB2" sqref="AB2:AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -1155,7 +1222,7 @@
     <col min="1" max="16384" width="2.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="7" customHeight="1" thickBot="1">
+    <row r="1" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1230,402 +1297,329 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="46" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="54"/>
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="54"/>
+      <c r="BQ2" s="59"/>
+      <c r="BR2" s="62"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="6"/>
+    </row>
+    <row r="3" spans="1:73" ht="15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="35"/>
+      <c r="BI3" s="35"/>
+      <c r="BJ3" s="55"/>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="60"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="65"/>
+      <c r="BT3" s="66"/>
+      <c r="BU3" s="6"/>
+    </row>
+    <row r="4" spans="1:73" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="39" t="s">
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="10"/>
-      <c r="BU2" s="6"/>
-    </row>
-    <row r="3" spans="1:73" ht="15" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="54"/>
-      <c r="BG3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="18"/>
-      <c r="BU3" s="6"/>
-    </row>
-    <row r="4" spans="1:73" ht="15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="30"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="15" t="s">
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="18"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="50"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="60"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="29"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="12" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21"/>
+      <c r="BC5" s="21"/>
+      <c r="BD5" s="21"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="21"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="57"/>
+      <c r="BK5" s="58"/>
+      <c r="BL5" s="58"/>
+      <c r="BM5" s="58"/>
+      <c r="BN5" s="58"/>
+      <c r="BO5" s="58"/>
+      <c r="BP5" s="58"/>
+      <c r="BQ5" s="61"/>
+      <c r="BR5" s="51"/>
+      <c r="BS5" s="51"/>
+      <c r="BT5" s="52"/>
       <c r="BU5" s="6"/>
     </row>
-    <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2"/>
-      <c r="BT6" s="2"/>
-      <c r="BU6" s="7"/>
+    <row r="6" spans="1:73" ht="15.5" thickTop="1">
+      <c r="A6" s="4"/>
+      <c r="BU6" s="6"/>
     </row>
     <row r="7" spans="1:73">
       <c r="A7" s="4"/>
@@ -1803,161 +1797,90 @@
       <c r="A50" s="4"/>
       <c r="BU50" s="6"/>
     </row>
-    <row r="51" spans="1:73">
+    <row r="51" spans="1:73" ht="15.5" thickBot="1">
       <c r="A51" s="4"/>
       <c r="BU51" s="6"/>
     </row>
-    <row r="52" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A52" s="4"/>
-      <c r="BU52" s="6"/>
+    <row r="52" spans="1:73">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
+      <c r="BO52" s="5"/>
+      <c r="BP52" s="5"/>
+      <c r="BQ52" s="5"/>
+      <c r="BR52" s="5"/>
+      <c r="BS52" s="5"/>
+      <c r="BT52" s="5"/>
     </row>
     <row r="53" spans="1:73">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="5"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5"/>
-      <c r="BK53" s="5"/>
-      <c r="BL53" s="5"/>
-      <c r="BM53" s="5"/>
-      <c r="BN53" s="5"/>
-      <c r="BO53" s="5"/>
-      <c r="BP53" s="5"/>
-      <c r="BQ53" s="5"/>
-      <c r="BR53" s="5"/>
-      <c r="BS53" s="5"/>
-      <c r="BT53" s="5"/>
-    </row>
-    <row r="54" spans="1:73" ht="7" customHeight="1" thickBot="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AP54" s="2"/>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
-      <c r="BE54" s="2"/>
-      <c r="BF54" s="2"/>
-      <c r="BG54" s="2"/>
-      <c r="BH54" s="2"/>
-      <c r="BI54" s="2"/>
-      <c r="BJ54" s="2"/>
-      <c r="BK54" s="2"/>
-      <c r="BL54" s="2"/>
-      <c r="BM54" s="2"/>
-      <c r="BN54" s="2"/>
-      <c r="BO54" s="2"/>
-      <c r="BP54" s="2"/>
-      <c r="BQ54" s="2"/>
-      <c r="BR54" s="2"/>
-      <c r="BS54" s="2"/>
-      <c r="BT54" s="2"/>
-      <c r="BU54" s="7"/>
+      <c r="A53" s="4"/>
+      <c r="BU53" s="6"/>
+    </row>
+    <row r="54" spans="1:73">
+      <c r="A54" s="4"/>
+      <c r="BU54" s="6"/>
     </row>
     <row r="55" spans="1:73">
       <c r="A55" s="4"/>
@@ -1969,6 +1892,7 @@
     </row>
     <row r="57" spans="1:73">
       <c r="A57" s="4"/>
+      <c r="M57" s="48"/>
       <c r="BU57" s="6"/>
     </row>
     <row r="58" spans="1:73">
@@ -2131,98 +2055,85 @@
       <c r="A97" s="4"/>
       <c r="BU97" s="6"/>
     </row>
-    <row r="98" spans="1:73">
+    <row r="98" spans="1:73" ht="15.5" thickBot="1">
       <c r="A98" s="4"/>
       <c r="BU98" s="6"/>
     </row>
     <row r="99" spans="1:73">
-      <c r="A99" s="4"/>
-      <c r="BU99" s="6"/>
-    </row>
-    <row r="100" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A100" s="4"/>
-      <c r="BU100" s="6"/>
-    </row>
-    <row r="101" spans="1:73">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5"/>
-      <c r="AF101" s="5"/>
-      <c r="AG101" s="5"/>
-      <c r="AH101" s="5"/>
-      <c r="AI101" s="5"/>
-      <c r="AJ101" s="5"/>
-      <c r="AK101" s="5"/>
-      <c r="AL101" s="5"/>
-      <c r="AM101" s="5"/>
-      <c r="AN101" s="5"/>
-      <c r="AO101" s="5"/>
-      <c r="AP101" s="5"/>
-      <c r="AQ101" s="5"/>
-      <c r="AR101" s="5"/>
-      <c r="AS101" s="5"/>
-      <c r="AT101" s="5"/>
-      <c r="AU101" s="5"/>
-      <c r="AV101" s="5"/>
-      <c r="AW101" s="5"/>
-      <c r="AX101" s="5"/>
-      <c r="AY101" s="5"/>
-      <c r="AZ101" s="5"/>
-      <c r="BA101" s="5"/>
-      <c r="BB101" s="5"/>
-      <c r="BC101" s="5"/>
-      <c r="BD101" s="5"/>
-      <c r="BE101" s="5"/>
-      <c r="BF101" s="5"/>
-      <c r="BG101" s="5"/>
-      <c r="BH101" s="5"/>
-      <c r="BI101" s="5"/>
-      <c r="BJ101" s="5"/>
-      <c r="BK101" s="5"/>
-      <c r="BL101" s="5"/>
-      <c r="BM101" s="5"/>
-      <c r="BN101" s="5"/>
-      <c r="BO101" s="5"/>
-      <c r="BP101" s="5"/>
-      <c r="BQ101" s="5"/>
-      <c r="BR101" s="5"/>
-      <c r="BS101" s="5"/>
-      <c r="BT101" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+      <c r="AM99" s="5"/>
+      <c r="AN99" s="5"/>
+      <c r="AO99" s="5"/>
+      <c r="AP99" s="5"/>
+      <c r="AQ99" s="5"/>
+      <c r="AR99" s="5"/>
+      <c r="AS99" s="5"/>
+      <c r="AT99" s="5"/>
+      <c r="AU99" s="5"/>
+      <c r="AV99" s="5"/>
+      <c r="AW99" s="5"/>
+      <c r="AX99" s="5"/>
+      <c r="AY99" s="5"/>
+      <c r="AZ99" s="5"/>
+      <c r="BA99" s="5"/>
+      <c r="BB99" s="5"/>
+      <c r="BC99" s="5"/>
+      <c r="BD99" s="5"/>
+      <c r="BE99" s="5"/>
+      <c r="BF99" s="5"/>
+      <c r="BG99" s="5"/>
+      <c r="BH99" s="5"/>
+      <c r="BI99" s="5"/>
+      <c r="BJ99" s="5"/>
+      <c r="BK99" s="5"/>
+      <c r="BL99" s="5"/>
+      <c r="BM99" s="5"/>
+      <c r="BN99" s="5"/>
+      <c r="BO99" s="5"/>
+      <c r="BP99" s="5"/>
+      <c r="BQ99" s="5"/>
+      <c r="BR99" s="5"/>
+      <c r="BS99" s="5"/>
+      <c r="BT99" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AT2:BF3"/>
-    <mergeCell ref="AO4:AS5"/>
-    <mergeCell ref="AT4:BF5"/>
-    <mergeCell ref="W4:AN5"/>
-    <mergeCell ref="BQ3:BT5"/>
+  <mergeCells count="19">
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
     <mergeCell ref="BG4:BI4"/>
@@ -2232,18 +2143,22 @@
     <mergeCell ref="BG2:BI2"/>
     <mergeCell ref="W2:AA3"/>
     <mergeCell ref="AB2:AN3"/>
-    <mergeCell ref="BJ4:BP4"/>
     <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BP5"/>
-    <mergeCell ref="BJ2:BP2"/>
     <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BJ3:BP3"/>
+    <mergeCell ref="AT2:BF3"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BJ4:BQ4"/>
+    <mergeCell ref="BJ5:BQ5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
+    <oddHeader>&amp;R&amp;12P.&amp;P/&amp;N　　　</oddHeader>
   </headerFooter>
 </worksheet>
 </file>